--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_30.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_30.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_9</t>
+          <t>model_1_30_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9921495826767082</v>
+        <v>0.8415323031178009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8044304522169408</v>
+        <v>0.6033832903132226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7414700043672691</v>
+        <v>0.7172679935475132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9961037227521053</v>
+        <v>0.7934246409160093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0326775716894802</v>
+        <v>0.3755989680601344</v>
       </c>
       <c r="G2" t="n">
-        <v>1.307774466540282</v>
+        <v>2.652177763927504</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9247468039478353</v>
+        <v>1.011315993336885</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01942475340028255</v>
+        <v>0.6047625822774259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5959078007653962</v>
+        <v>1.139647344474123</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1807693881426836</v>
+        <v>0.6128612959390848</v>
       </c>
       <c r="L2" t="n">
-        <v>1.502426708690678</v>
+        <v>0.784214199990197</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1836163253028381</v>
+        <v>0.6225132487135902</v>
       </c>
       <c r="N2" t="n">
-        <v>136.8421326349172</v>
+        <v>35.95846655819107</v>
       </c>
       <c r="O2" t="n">
-        <v>278.1773051781336</v>
+        <v>72.9230501464169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_8</t>
+          <t>model_1_30_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9920217430689918</v>
+        <v>0.8414713557510552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8043174410413836</v>
+        <v>0.6032842278593353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7411147034704105</v>
+        <v>0.7171301886446413</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9961307498384094</v>
+        <v>0.7928823993070698</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03320970746951227</v>
+        <v>0.3757434250599271</v>
       </c>
       <c r="G3" t="n">
-        <v>1.308530172791602</v>
+        <v>2.652840195012789</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9260176946543688</v>
+        <v>1.011808913484071</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01929001081057841</v>
+        <v>0.6063500292851163</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6010458029054608</v>
+        <v>1.137182445118417</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1822353079661355</v>
+        <v>0.6129791391719028</v>
       </c>
       <c r="L3" t="n">
-        <v>1.510608443584523</v>
+        <v>0.7841312078312241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1851053318981272</v>
+        <v>0.6226329478595252</v>
       </c>
       <c r="N3" t="n">
-        <v>136.8098261042768</v>
+        <v>35.95769749735864</v>
       </c>
       <c r="O3" t="n">
-        <v>278.1449986474931</v>
+        <v>72.92228108558446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_7</t>
+          <t>model_1_30_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9918954436005646</v>
+        <v>0.8414099728116688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8042581975167576</v>
+        <v>0.6031865648074977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407012035716423</v>
+        <v>0.7169938638555874</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9961809050133098</v>
+        <v>0.7923431235254932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03373543237863628</v>
+        <v>0.3758889144507848</v>
       </c>
       <c r="G4" t="n">
-        <v>1.308926334513567</v>
+        <v>2.653493268290124</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9274967598161614</v>
+        <v>1.012296539349951</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01903996394732873</v>
+        <v>0.6079287936434219</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6067593627593755</v>
+        <v>1.134739416448226</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1836720783860091</v>
+        <v>0.6130978017011518</v>
       </c>
       <c r="L4" t="n">
-        <v>1.518691609563867</v>
+        <v>0.7840476225520597</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1865647300158703</v>
+        <v>0.6227534792049907</v>
       </c>
       <c r="N4" t="n">
-        <v>136.7784131761393</v>
+        <v>35.95692323906758</v>
       </c>
       <c r="O4" t="n">
-        <v>278.1135857193556</v>
+        <v>72.9215068272934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_6</t>
+          <t>model_1_30_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9917610033540288</v>
+        <v>0.8413482959135908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8041668126302807</v>
+        <v>0.6030903277221622</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7402967050681146</v>
+        <v>0.7168590436170118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9962107892653481</v>
+        <v>0.7918069466125591</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03429504349397017</v>
+        <v>0.3760351005803686</v>
       </c>
       <c r="G5" t="n">
-        <v>1.309537425670227</v>
+        <v>2.654136806122894</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9289436275091085</v>
+        <v>1.01277878352601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0188909770581872</v>
+        <v>0.6094984858654825</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6127072548470863</v>
+        <v>1.132312585470505</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1851892099825748</v>
+        <v>0.6132170093697407</v>
       </c>
       <c r="L5" t="n">
-        <v>1.527295785342154</v>
+        <v>0.7839636369887194</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1881057549185066</v>
+        <v>0.6228745642751959</v>
       </c>
       <c r="N5" t="n">
-        <v>136.745508879602</v>
+        <v>35.95614557468392</v>
       </c>
       <c r="O5" t="n">
-        <v>278.0806814228184</v>
+        <v>72.92072916290975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_5</t>
+          <t>model_1_30_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9916231802854707</v>
+        <v>0.8412863025197305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8040834183327596</v>
+        <v>0.6029954167020872</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7398973306812893</v>
+        <v>0.7167255016927387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9962394537468666</v>
+        <v>0.7912738587013973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03486873569628272</v>
+        <v>0.3761820368659246</v>
       </c>
       <c r="G6" t="n">
-        <v>1.310095083721745</v>
+        <v>2.654771476551161</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9303721665337257</v>
+        <v>1.013256455245929</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01874807129214021</v>
+        <v>0.6110591348371928</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6188307885798808</v>
+        <v>1.129905738361806</v>
       </c>
       <c r="K6" t="n">
-        <v>0.186731721183849</v>
+        <v>0.613336805406234</v>
       </c>
       <c r="L6" t="n">
-        <v>1.536116461729875</v>
+        <v>0.783879220452399</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1896725591292555</v>
+        <v>0.6229962469795119</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7123293531729</v>
+        <v>35.95536422429925</v>
       </c>
       <c r="O6" t="n">
-        <v>278.0475018963893</v>
+        <v>72.91994781252508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_4</t>
+          <t>model_1_30_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9914764406673248</v>
+        <v>0.8412239465851004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.803941380733452</v>
+        <v>0.6029018716157065</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7394618174899962</v>
+        <v>0.7165934483255785</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9962402618202721</v>
+        <v>0.7907438213968822</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03547954327429838</v>
+        <v>0.3763298324429432</v>
       </c>
       <c r="G7" t="n">
-        <v>1.311044889802339</v>
+        <v>2.655397012974523</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9319299719664752</v>
+        <v>1.013728802483367</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01874404267055274</v>
+        <v>0.6126108529627395</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6250447815042</v>
+        <v>1.12752679662232</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1883601424779096</v>
+        <v>0.6134572784171227</v>
       </c>
       <c r="L7" t="n">
-        <v>1.545507797291215</v>
+        <v>0.783794310243541</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1913266264308734</v>
+        <v>0.6231186173198933</v>
       </c>
       <c r="N7" t="n">
-        <v>136.6775979887772</v>
+        <v>35.95457861235108</v>
       </c>
       <c r="O7" t="n">
-        <v>278.0127705319936</v>
+        <v>72.91916220057689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_3</t>
+          <t>model_1_30_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9913285230486362</v>
+        <v>0.8411613512667242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.803830097356635</v>
+        <v>0.6028096957922053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.739004906073623</v>
+        <v>0.716462771591218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9962546899945683</v>
+        <v>0.7902168537186531</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0360952543110214</v>
+        <v>0.3764781954055534</v>
       </c>
       <c r="G8" t="n">
-        <v>1.311789042255526</v>
+        <v>2.656013393130706</v>
       </c>
       <c r="H8" t="n">
-        <v>0.933564317609596</v>
+        <v>1.014196225585102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01867211151424892</v>
+        <v>0.614153584560911</v>
       </c>
       <c r="J8" t="n">
-        <v>0.631439935588417</v>
+        <v>1.125209469127666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.189987510934328</v>
+        <v>0.6135781901319126</v>
       </c>
       <c r="L8" t="n">
-        <v>1.554974524887285</v>
+        <v>0.7837090740653265</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1929796243137088</v>
+        <v>0.6232414332733237</v>
       </c>
       <c r="N8" t="n">
-        <v>136.6431877636267</v>
+        <v>35.95379029469748</v>
       </c>
       <c r="O8" t="n">
-        <v>277.9783603068431</v>
+        <v>72.91837388292329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_2</t>
+          <t>model_1_30_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9911780534959763</v>
+        <v>0.8410984449597618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8037433229212336</v>
+        <v>0.6027188243050561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7385560518913383</v>
+        <v>0.716333492126719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9962700974956333</v>
+        <v>0.7896927855554002</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03672158784102846</v>
+        <v>0.3766272954710204</v>
       </c>
       <c r="G9" t="n">
-        <v>1.312369303304615</v>
+        <v>2.656621051183699</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9351698429935673</v>
+        <v>1.01465865073356</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01859529795872934</v>
+        <v>0.615687827643453</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6380668106763956</v>
+        <v>1.122909082842936</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1916287761298612</v>
+        <v>0.6136996785651924</v>
       </c>
       <c r="L9" t="n">
-        <v>1.564604576257516</v>
+        <v>0.7836234144132928</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1946467377954083</v>
+        <v>0.6233648350279839</v>
       </c>
       <c r="N9" t="n">
-        <v>136.6087809446134</v>
+        <v>35.95299837341037</v>
       </c>
       <c r="O9" t="n">
-        <v>277.9439534878297</v>
+        <v>72.91758196163619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_1</t>
+          <t>model_1_30_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9910207299591114</v>
+        <v>0.8410352716858334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8035998349464462</v>
+        <v>0.6026292636075592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7380850916476285</v>
+        <v>0.7162055144049628</v>
       </c>
       <c r="E10" t="n">
-        <v>0.996260474483857</v>
+        <v>0.7891717757698871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03737645126326893</v>
+        <v>0.3767770282996242</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31332880805272</v>
+        <v>2.657219943980249</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9368544404774732</v>
+        <v>1.015116419623708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01864327314602451</v>
+        <v>0.6172131171294589</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6444069698601842</v>
+        <v>1.120624989048501</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1933299026619238</v>
+        <v>0.613821658382648</v>
       </c>
       <c r="L10" t="n">
-        <v>1.574673282616871</v>
+        <v>0.7835373912317731</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1963746553698483</v>
+        <v>0.6234887359056294</v>
       </c>
       <c r="N10" t="n">
-        <v>136.5734288364774</v>
+        <v>35.95220340674585</v>
       </c>
       <c r="O10" t="n">
-        <v>277.9086013796938</v>
+        <v>72.91678699497167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_0</t>
+          <t>model_1_30_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9908613115854789</v>
+        <v>0.8409717839380494</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8034935322071557</v>
+        <v>0.6025410404378013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7376079277209824</v>
+        <v>0.7160792282693088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9962636909943529</v>
+        <v>0.7886536675582074</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0380400344994802</v>
+        <v>0.3769275064918444</v>
       </c>
       <c r="G11" t="n">
-        <v>1.314039654959835</v>
+        <v>2.65780989272265</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9385612281755323</v>
+        <v>1.015568137808451</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01862723734589632</v>
+        <v>0.6187299120723984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6512082128351785</v>
+        <v>1.118362953784898</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1950385461889013</v>
+        <v>0.6139442209939308</v>
       </c>
       <c r="L11" t="n">
-        <v>1.584876058529353</v>
+        <v>0.7834509398305354</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1981102083243588</v>
+        <v>0.6236132287555221</v>
       </c>
       <c r="N11" t="n">
-        <v>136.5382322687579</v>
+        <v>35.95140480099374</v>
       </c>
       <c r="O11" t="n">
-        <v>277.8734048119743</v>
+        <v>72.91598838921956</v>
       </c>
     </row>
   </sheetData>
